--- a/Reports/Tribunal/AddressListDebitSixMonthPenalty/AddressListDebitSixMonthPenalty.xlsx
+++ b/Reports/Tribunal/AddressListDebitSixMonthPenalty/AddressListDebitSixMonthPenalty.xlsx
@@ -150,13 +150,13 @@
     <t>$SUM_t1['Penalty_summ']</t>
   </si>
   <si>
-    <t>Семма иска</t>
-  </si>
-  <si>
     <t>$t1['summ_isk']</t>
   </si>
   <si>
     <t>$SUM_t1['summ_isk']</t>
+  </si>
+  <si>
+    <t>Сумма иска</t>
   </si>
 </sst>
 </file>
@@ -341,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,9 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -658,7 +658,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -677,15 +677,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75">
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
@@ -703,59 +703,59 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75">
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:24" ht="15.75">
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:24" ht="15.75">
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:24">
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:24" ht="15.75">
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1">
       <c r="E7" s="17"/>
@@ -816,7 +816,7 @@
         <v>40</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>36</v>
@@ -863,12 +863,12 @@
         <v>41</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="26" t="s">
         <v>30</v>
       </c>
       <c r="O10" s="8" t="s">
@@ -885,14 +885,14 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
@@ -900,7 +900,7 @@
         <v>42</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>38</v>

--- a/Reports/Tribunal/AddressListDebitSixMonthPenalty/AddressListDebitSixMonthPenalty.xlsx
+++ b/Reports/Tribunal/AddressListDebitSixMonthPenalty/AddressListDebitSixMonthPenalty.xlsx
@@ -141,9 +141,6 @@
     <t>$t1['status_street']." ".$t1['name_street']</t>
   </si>
   <si>
-    <t>Сумма пени</t>
-  </si>
-  <si>
     <t>$t1['Penalty_summ']</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Сумма иска</t>
+  </si>
+  <si>
+    <t>"Сумма пени на " .$this-&gt;H['dateEnd']</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -813,10 +813,10 @@
         <v>27</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>36</v>
@@ -860,10 +860,10 @@
         <v>28</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>37</v>
@@ -897,10 +897,10 @@
         <v>29</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>38</v>

--- a/Reports/Tribunal/AddressListDebitSixMonthPenalty/AddressListDebitSixMonthPenalty.xlsx
+++ b/Reports/Tribunal/AddressListDebitSixMonthPenalty/AddressListDebitSixMonthPenalty.xlsx
@@ -163,9 +163,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -341,9 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +349,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -658,7 +657,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -677,15 +676,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75">
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
@@ -703,59 +702,59 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75">
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:24" ht="15.75">
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:24" ht="15.75">
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:24">
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:24" ht="15.75">
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:24" ht="20.25" customHeight="1">
       <c r="E7" s="17"/>
@@ -868,7 +867,7 @@
       <c r="L10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="30" t="s">
         <v>30</v>
       </c>
       <c r="O10" s="8" t="s">
@@ -885,14 +884,14 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
